--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.305742</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H2">
-        <v>0.9172259999999999</v>
+        <v>0.008975</v>
       </c>
       <c r="I2">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="J2">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.267299</v>
+        <v>15.24491733333333</v>
       </c>
       <c r="N2">
-        <v>39.801897</v>
+        <v>45.73475199999999</v>
       </c>
       <c r="O2">
-        <v>0.4248136128385448</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="P2">
-        <v>0.4248136128385449</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="Q2">
-        <v>4.056370530858</v>
+        <v>0.04560771102222222</v>
       </c>
       <c r="R2">
-        <v>36.50733477772199</v>
+        <v>0.4104693992</v>
       </c>
       <c r="S2">
-        <v>0.01487610972734509</v>
+        <v>0.0001723026179277216</v>
       </c>
       <c r="T2">
-        <v>0.01487610972734509</v>
+        <v>0.0001723026179277215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.305742</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H3">
-        <v>0.9172259999999999</v>
+        <v>0.008975</v>
       </c>
       <c r="I3">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="J3">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>31.022496</v>
       </c>
       <c r="O3">
-        <v>0.3311093088108163</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="P3">
-        <v>0.3311093088108164</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="Q3">
-        <v>3.161626657343999</v>
+        <v>0.0309363224</v>
       </c>
       <c r="R3">
-        <v>28.45463991609599</v>
+        <v>0.2784269016</v>
       </c>
       <c r="S3">
-        <v>0.01159477535736862</v>
+        <v>0.00011687517788338</v>
       </c>
       <c r="T3">
-        <v>0.01159477535736862</v>
+        <v>0.00011687517788338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.305742</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H4">
-        <v>0.9172259999999999</v>
+        <v>0.008975</v>
       </c>
       <c r="I4">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="J4">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.622739666666667</v>
+        <v>5.969012333333333</v>
       </c>
       <c r="N4">
-        <v>22.868219</v>
+        <v>17.907037</v>
       </c>
       <c r="O4">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="P4">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="Q4">
-        <v>2.330591671166</v>
+        <v>0.01785729523055556</v>
       </c>
       <c r="R4">
-        <v>20.975325040494</v>
+        <v>0.160715657075</v>
       </c>
       <c r="S4">
-        <v>0.008547083449639543</v>
+        <v>6.746356369066073E-05</v>
       </c>
       <c r="T4">
-        <v>0.008547083449639543</v>
+        <v>6.746356369066073E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.092532</v>
       </c>
       <c r="I5">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391614</v>
       </c>
       <c r="J5">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391616</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.267299</v>
+        <v>15.24491733333333</v>
       </c>
       <c r="N5">
-        <v>39.801897</v>
+        <v>45.73475199999999</v>
       </c>
       <c r="O5">
-        <v>0.4248136128385448</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="P5">
-        <v>0.4248136128385449</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="Q5">
-        <v>110.970041570356</v>
+        <v>127.5111920080071</v>
       </c>
       <c r="R5">
-        <v>998.7303741332039</v>
+        <v>1147.600728072064</v>
       </c>
       <c r="S5">
-        <v>0.4069654145967492</v>
+        <v>0.4817280171626882</v>
       </c>
       <c r="T5">
-        <v>0.4069654145967492</v>
+        <v>0.4817280171626882</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.092532</v>
       </c>
       <c r="I6">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391614</v>
       </c>
       <c r="J6">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391616</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>31.022496</v>
       </c>
       <c r="O6">
-        <v>0.3311093088108163</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="P6">
-        <v>0.3311093088108164</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="Q6">
-        <v>86.49255262220798</v>
+        <v>86.492552622208</v>
       </c>
       <c r="R6">
-        <v>778.4329735998718</v>
+        <v>778.432973599872</v>
       </c>
       <c r="S6">
-        <v>0.3171980206487643</v>
+        <v>0.3267625783893488</v>
       </c>
       <c r="T6">
-        <v>0.3171980206487644</v>
+        <v>0.3267625783893489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.092532</v>
       </c>
       <c r="I7">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391614</v>
       </c>
       <c r="J7">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391616</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.622739666666667</v>
+        <v>5.969012333333333</v>
       </c>
       <c r="N7">
-        <v>22.868219</v>
+        <v>17.907037</v>
       </c>
       <c r="O7">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="P7">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="Q7">
-        <v>63.75794633783421</v>
+        <v>49.92587766085376</v>
       </c>
       <c r="R7">
-        <v>573.821517040508</v>
+        <v>449.3328989476839</v>
       </c>
       <c r="S7">
-        <v>0.2338223785269395</v>
+        <v>0.1886163376871245</v>
       </c>
       <c r="T7">
-        <v>0.2338223785269395</v>
+        <v>0.1886163376871245</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.061084</v>
+        <v>0.02127666666666667</v>
       </c>
       <c r="H8">
-        <v>0.183252</v>
+        <v>0.06383</v>
       </c>
       <c r="I8">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="J8">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.267299</v>
+        <v>15.24491733333333</v>
       </c>
       <c r="N8">
-        <v>39.801897</v>
+        <v>45.73475199999999</v>
       </c>
       <c r="O8">
-        <v>0.4248136128385448</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="P8">
-        <v>0.4248136128385449</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="Q8">
-        <v>0.810419692116</v>
+        <v>0.3243610244622222</v>
       </c>
       <c r="R8">
-        <v>7.293777229043999</v>
+        <v>2.919249220159999</v>
       </c>
       <c r="S8">
-        <v>0.002972088514450574</v>
+        <v>0.0012254123790893</v>
       </c>
       <c r="T8">
-        <v>0.002972088514450574</v>
+        <v>0.0012254123790893</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.061084</v>
+        <v>0.02127666666666667</v>
       </c>
       <c r="H9">
-        <v>0.183252</v>
+        <v>0.06383</v>
       </c>
       <c r="I9">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="J9">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>31.022496</v>
       </c>
       <c r="O9">
-        <v>0.3311093088108163</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="P9">
-        <v>0.3311093088108164</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="Q9">
-        <v>0.631659381888</v>
+        <v>0.22001843552</v>
       </c>
       <c r="R9">
-        <v>5.684934436991999</v>
+        <v>1.98016591968</v>
       </c>
       <c r="S9">
-        <v>0.002316512804683377</v>
+        <v>0.0008312136606458103</v>
       </c>
       <c r="T9">
-        <v>0.002316512804683377</v>
+        <v>0.0008312136606458103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.061084</v>
+        <v>0.02127666666666667</v>
       </c>
       <c r="H10">
-        <v>0.183252</v>
+        <v>0.06383</v>
       </c>
       <c r="I10">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="J10">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.622739666666667</v>
+        <v>5.969012333333333</v>
       </c>
       <c r="N10">
-        <v>22.868219</v>
+        <v>17.907037</v>
       </c>
       <c r="O10">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="P10">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="Q10">
-        <v>0.4656274297986667</v>
+        <v>0.1270006857455555</v>
       </c>
       <c r="R10">
-        <v>4.190646868188</v>
+        <v>1.14300617171</v>
       </c>
       <c r="S10">
-        <v>0.001707616374059769</v>
+        <v>0.0004797993616016572</v>
       </c>
       <c r="T10">
-        <v>0.001707616374059769</v>
+        <v>0.0004797993616016573</v>
       </c>
     </row>
   </sheetData>
